--- a/StructureDefinition-AdultCheckModel.xlsx
+++ b/StructureDefinition-AdultCheckModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="277">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T16:31:57+08:00</t>
+    <t>2023-10-17T10:22:38+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,6 +130,9 @@
     <t>Base</t>
   </si>
   <si>
+    <t>BundleAdultCheck</t>
+  </si>
+  <si>
     <t>AdultCheckModel.caseNo</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>就醫序號</t>
   </si>
   <si>
+    <t>identifier</t>
+  </si>
+  <si>
     <t>AdultCheckModel.patient</t>
   </si>
   <si>
@@ -248,10 +254,16 @@
     <t>身分證字號</t>
   </si>
   <si>
+    <t>entry:patient.identifier:idCardNumber</t>
+  </si>
+  <si>
     <t>AdultCheckModel.patient.patientNo</t>
   </si>
   <si>
     <t>病歷號碼</t>
+  </si>
+  <si>
+    <t>entry:patient.identifier:medicalRecordNumber</t>
   </si>
   <si>
     <t>AdultCheckModel.patient.name</t>
@@ -267,6 +279,9 @@
     <t>病人之合法姓名</t>
   </si>
   <si>
+    <t>entry:patient.name:officialName</t>
+  </si>
+  <si>
     <t>AdultCheckModel.patient.gender</t>
   </si>
   <si>
@@ -277,6 +292,9 @@
     <t>性別</t>
   </si>
   <si>
+    <t>entry:patient.gender:gender</t>
+  </si>
+  <si>
     <t>AdultCheckModel.patient.birthDate</t>
   </si>
   <si>
@@ -287,6 +305,9 @@
     <t>出生日期</t>
   </si>
   <si>
+    <t>entry:patient.birthDate:birthdate</t>
+  </si>
+  <si>
     <t>AdultCheckModel.patient.telecom</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>電話</t>
   </si>
   <si>
+    <t>entry:patient.telecom:phone</t>
+  </si>
+  <si>
     <t>AdultCheckModel.patient.city</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>居住地址(戶籍地)</t>
   </si>
   <si>
+    <t>entry:patient.address.city</t>
+  </si>
+  <si>
     <t>AdultCheckModel.organization</t>
   </si>
   <si>
@@ -330,12 +357,18 @@
     <t>醫事機構代碼</t>
   </si>
   <si>
+    <t>entry:organization.identifier</t>
+  </si>
+  <si>
     <t>AdultCheckModel.firstCheckDate</t>
   </si>
   <si>
     <t>第一階段檢查日期</t>
   </si>
   <si>
+    <t>entry:encounter.statusHistory.period</t>
+  </si>
+  <si>
     <t>AdultCheckModel.secondCheckDate</t>
   </si>
   <si>
@@ -348,10 +381,16 @@
     <t>檢查結果上傳日期</t>
   </si>
   <si>
+    <t>entry:observationLab.effectiveDateTime</t>
+  </si>
+  <si>
     <t>AdultCheckModel.hepatitisBC</t>
   </si>
   <si>
     <t>檢查過B、C型肝炎</t>
+  </si>
+  <si>
+    <t>entry:observationSocial.code</t>
   </si>
   <si>
     <t>AdultCheckModel.history</t>
@@ -382,6 +421,9 @@
     <t>疾病史:高血壓</t>
   </si>
   <si>
+    <t>entry:condition.code</t>
+  </si>
+  <si>
     <t>AdultCheckModel.history.diabetes</t>
   </si>
   <si>
@@ -451,6 +493,9 @@
     <t>生活史:吸菸</t>
   </si>
   <si>
+    <t>entry:observationSocial.valueString</t>
+  </si>
+  <si>
     <t>AdultCheckModel.life.alcoholicDrink</t>
   </si>
   <si>
@@ -500,6 +545,9 @@
   </si>
   <si>
     <t>憂鬱檢測：第一題 感覺情緒低落沮喪</t>
+  </si>
+  <si>
+    <t>entry:observationDepress.component.valueString</t>
   </si>
   <si>
     <t>AdultCheckModel.depress.loseinterest</t>
@@ -536,12 +584,18 @@
     <t>身高</t>
   </si>
   <si>
+    <t>entry:observationHeight.valueQuantity</t>
+  </si>
+  <si>
     <t>AdultCheckModel.vitalSign.weight</t>
   </si>
   <si>
     <t>體重</t>
   </si>
   <si>
+    <t>entry:observationWeight.valueQuantity</t>
+  </si>
+  <si>
     <t>AdultCheckModel.vitalSign.sbp</t>
   </si>
   <si>
@@ -551,6 +605,9 @@
     <t>收縮壓</t>
   </si>
   <si>
+    <t>entry:observationPressure.component.valueQuantity</t>
+  </si>
+  <si>
     <t>AdultCheckModel.vitalSign.dbp</t>
   </si>
   <si>
@@ -566,12 +623,18 @@
     <t>腰圍</t>
   </si>
   <si>
+    <t>entry:observationWaist.valueQuantity</t>
+  </si>
+  <si>
     <t>AdultCheckModel.vitalSign.bmi</t>
   </si>
   <si>
     <t>BMI</t>
   </si>
   <si>
+    <t>entry:observationBMI.valueQuantity</t>
+  </si>
+  <si>
     <t>AdultCheckModel.lab</t>
   </si>
   <si>
@@ -593,12 +656,18 @@
     <t>Protein 尿蛋白</t>
   </si>
   <si>
+    <t>entry:observationLab.valueQuantity</t>
+  </si>
+  <si>
     <t>AdultCheckModel.lab.glucose</t>
   </si>
   <si>
     <t>血糖</t>
   </si>
   <si>
+    <t>entry:lobservationLab.valueQuantity</t>
+  </si>
+  <si>
     <t>AdultCheckModel.lab.cholesterol</t>
   </si>
   <si>
@@ -741,6 +810,9 @@
   </si>
   <si>
     <t>血壓檢查結果與建議</t>
+  </si>
+  <si>
+    <t>entry:disgnostic.conclusion</t>
   </si>
   <si>
     <t>AdultCheckModel.result.bloodGlucose</t>
@@ -1085,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK97"/>
+  <dimension ref="A1:AL97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1129,6 +1201,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1233,13 +1306,16 @@
       <c r="AK1" t="s" s="2">
         <v>33</v>
       </c>
+      <c r="AL1" t="s" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1247,10 +1323,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>33</v>
@@ -1262,13 +1338,13 @@
         <v>33</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1319,13 +1395,13 @@
         <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>33</v>
@@ -1335,14 +1411,17 @@
       </c>
       <c r="AK2" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1350,10 +1429,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>33</v>
@@ -1365,13 +1444,13 @@
         <v>33</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1422,30 +1501,33 @@
         <v>33</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1456,7 +1538,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>33</v>
@@ -1468,13 +1550,13 @@
         <v>33</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1525,13 +1607,13 @@
         <v>33</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>33</v>
@@ -1540,19 +1622,22 @@
         <v>33</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1571,16 +1656,16 @@
         <v>33</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1618,19 +1703,19 @@
         <v>33</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>34</v>
@@ -1642,22 +1727,25 @@
         <v>33</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1670,25 +1758,25 @@
         <v>33</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>33</v>
@@ -1737,7 +1825,7 @@
         <v>33</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>34</v>
@@ -1749,18 +1837,21 @@
         <v>33</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1768,10 +1859,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>33</v>
@@ -1783,13 +1874,13 @@
         <v>33</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1840,13 +1931,13 @@
         <v>33</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>33</v>
@@ -1856,14 +1947,17 @@
       </c>
       <c r="AK7" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1871,10 +1965,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>33</v>
@@ -1886,13 +1980,13 @@
         <v>33</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1943,13 +2037,13 @@
         <v>33</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>33</v>
@@ -1959,14 +2053,17 @@
       </c>
       <c r="AK8" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1974,10 +2071,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>33</v>
@@ -1989,13 +2086,13 @@
         <v>33</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2046,13 +2143,13 @@
         <v>33</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>33</v>
@@ -2062,14 +2159,17 @@
       </c>
       <c r="AK9" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2077,10 +2177,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>33</v>
@@ -2092,13 +2192,13 @@
         <v>33</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2149,13 +2249,13 @@
         <v>33</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>33</v>
@@ -2165,14 +2265,17 @@
       </c>
       <c r="AK10" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2180,10 +2283,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>33</v>
@@ -2195,13 +2298,13 @@
         <v>33</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2252,13 +2355,13 @@
         <v>33</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>33</v>
@@ -2268,14 +2371,17 @@
       </c>
       <c r="AK11" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2286,7 +2392,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>33</v>
@@ -2298,13 +2404,13 @@
         <v>33</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2355,13 +2461,13 @@
         <v>33</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>33</v>
@@ -2371,14 +2477,17 @@
       </c>
       <c r="AK12" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2389,7 +2498,7 @@
         <v>34</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>33</v>
@@ -2401,13 +2510,13 @@
         <v>33</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2458,13 +2567,13 @@
         <v>33</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>33</v>
@@ -2474,14 +2583,17 @@
       </c>
       <c r="AK13" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2489,10 +2601,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>33</v>
@@ -2504,13 +2616,13 @@
         <v>33</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2561,30 +2673,33 @@
         <v>33</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2595,7 +2710,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>33</v>
@@ -2607,13 +2722,13 @@
         <v>33</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2664,13 +2779,13 @@
         <v>33</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>33</v>
@@ -2679,19 +2794,22 @@
         <v>33</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2710,16 +2828,16 @@
         <v>33</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2757,19 +2875,19 @@
         <v>33</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>34</v>
@@ -2781,22 +2899,25 @@
         <v>33</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2809,25 +2930,25 @@
         <v>33</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>33</v>
@@ -2876,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>34</v>
@@ -2888,18 +3009,21 @@
         <v>33</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2907,10 +3031,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>33</v>
@@ -2922,13 +3046,13 @@
         <v>33</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2979,13 +3103,13 @@
         <v>33</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>33</v>
@@ -2995,14 +3119,17 @@
       </c>
       <c r="AK18" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3013,7 +3140,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>33</v>
@@ -3025,13 +3152,13 @@
         <v>33</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3082,13 +3209,13 @@
         <v>33</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>33</v>
@@ -3098,14 +3225,17 @@
       </c>
       <c r="AK19" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3116,7 +3246,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>33</v>
@@ -3128,13 +3258,13 @@
         <v>33</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3185,13 +3315,13 @@
         <v>33</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>33</v>
@@ -3201,14 +3331,17 @@
       </c>
       <c r="AK20" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3219,7 +3352,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>33</v>
@@ -3231,13 +3364,13 @@
         <v>33</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3288,13 +3421,13 @@
         <v>33</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>33</v>
@@ -3304,14 +3437,17 @@
       </c>
       <c r="AK21" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3322,7 +3458,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>33</v>
@@ -3334,13 +3470,13 @@
         <v>33</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3391,13 +3527,13 @@
         <v>33</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>33</v>
@@ -3407,14 +3543,17 @@
       </c>
       <c r="AK22" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3425,7 +3564,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>33</v>
@@ -3437,13 +3576,13 @@
         <v>33</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3494,30 +3633,33 @@
         <v>33</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3528,7 +3670,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>33</v>
@@ -3540,13 +3682,13 @@
         <v>33</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3597,13 +3739,13 @@
         <v>33</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>33</v>
@@ -3612,19 +3754,22 @@
         <v>33</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3643,16 +3788,16 @@
         <v>33</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3690,19 +3835,19 @@
         <v>33</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>34</v>
@@ -3714,22 +3859,25 @@
         <v>33</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -3742,25 +3890,25 @@
         <v>33</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>33</v>
@@ -3809,7 +3957,7 @@
         <v>33</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>34</v>
@@ -3821,18 +3969,21 @@
         <v>33</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3843,7 +3994,7 @@
         <v>34</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>33</v>
@@ -3855,13 +4006,13 @@
         <v>33</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3912,13 +4063,13 @@
         <v>33</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>33</v>
@@ -3928,14 +4079,17 @@
       </c>
       <c r="AK27" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3946,7 +4100,7 @@
         <v>34</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>33</v>
@@ -3958,13 +4112,13 @@
         <v>33</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4015,13 +4169,13 @@
         <v>33</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>33</v>
@@ -4031,14 +4185,17 @@
       </c>
       <c r="AK28" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4049,7 +4206,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>33</v>
@@ -4061,13 +4218,13 @@
         <v>33</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4118,13 +4275,13 @@
         <v>33</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>33</v>
@@ -4134,14 +4291,17 @@
       </c>
       <c r="AK29" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4152,7 +4312,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>33</v>
@@ -4164,13 +4324,13 @@
         <v>33</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4221,13 +4381,13 @@
         <v>33</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>33</v>
@@ -4237,14 +4397,17 @@
       </c>
       <c r="AK30" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4255,7 +4418,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>33</v>
@@ -4267,13 +4430,13 @@
         <v>33</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4324,13 +4487,13 @@
         <v>33</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>33</v>
@@ -4340,14 +4503,17 @@
       </c>
       <c r="AK31" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4358,7 +4524,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>33</v>
@@ -4370,13 +4536,13 @@
         <v>33</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4427,13 +4593,13 @@
         <v>33</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>33</v>
@@ -4443,14 +4609,17 @@
       </c>
       <c r="AK32" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4461,7 +4630,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>33</v>
@@ -4473,13 +4642,13 @@
         <v>33</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4530,30 +4699,33 @@
         <v>33</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4564,7 +4736,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>33</v>
@@ -4576,13 +4748,13 @@
         <v>33</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4633,13 +4805,13 @@
         <v>33</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>33</v>
@@ -4648,19 +4820,22 @@
         <v>33</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -4679,16 +4854,16 @@
         <v>33</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4726,19 +4901,19 @@
         <v>33</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>34</v>
@@ -4750,22 +4925,25 @@
         <v>33</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -4778,25 +4956,25 @@
         <v>33</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>33</v>
@@ -4845,7 +5023,7 @@
         <v>33</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>34</v>
@@ -4857,18 +5035,21 @@
         <v>33</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4879,7 +5060,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>33</v>
@@ -4891,13 +5072,13 @@
         <v>33</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4948,13 +5129,13 @@
         <v>33</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>33</v>
@@ -4964,14 +5145,17 @@
       </c>
       <c r="AK37" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4982,7 +5166,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>33</v>
@@ -4994,13 +5178,13 @@
         <v>33</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5051,13 +5235,13 @@
         <v>33</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>33</v>
@@ -5067,14 +5251,17 @@
       </c>
       <c r="AK38" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5085,7 +5272,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>33</v>
@@ -5097,13 +5284,13 @@
         <v>33</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5154,13 +5341,13 @@
         <v>33</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>33</v>
@@ -5170,14 +5357,17 @@
       </c>
       <c r="AK39" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5188,7 +5378,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>33</v>
@@ -5200,13 +5390,13 @@
         <v>33</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5257,13 +5447,13 @@
         <v>33</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>33</v>
@@ -5273,14 +5463,17 @@
       </c>
       <c r="AK40" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5291,7 +5484,7 @@
         <v>34</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>33</v>
@@ -5303,13 +5496,13 @@
         <v>33</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5360,30 +5553,33 @@
         <v>33</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5394,7 +5590,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>33</v>
@@ -5406,13 +5602,13 @@
         <v>33</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5463,13 +5659,13 @@
         <v>33</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>33</v>
@@ -5478,19 +5674,22 @@
         <v>33</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -5509,16 +5708,16 @@
         <v>33</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5556,19 +5755,19 @@
         <v>33</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>34</v>
@@ -5580,22 +5779,25 @@
         <v>33</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -5608,25 +5810,25 @@
         <v>33</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>33</v>
@@ -5675,7 +5877,7 @@
         <v>33</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>34</v>
@@ -5687,18 +5889,21 @@
         <v>33</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5709,7 +5914,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>33</v>
@@ -5721,13 +5926,13 @@
         <v>33</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5778,13 +5983,13 @@
         <v>33</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>33</v>
@@ -5794,14 +5999,17 @@
       </c>
       <c r="AK45" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>172</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5812,7 +6020,7 @@
         <v>34</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>33</v>
@@ -5824,13 +6032,13 @@
         <v>33</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5881,13 +6089,13 @@
         <v>33</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>33</v>
@@ -5897,14 +6105,17 @@
       </c>
       <c r="AK46" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>172</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5915,7 +6126,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>33</v>
@@ -5927,13 +6138,13 @@
         <v>33</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5984,30 +6195,33 @@
         <v>33</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6018,7 +6232,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>33</v>
@@ -6030,13 +6244,13 @@
         <v>33</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6087,13 +6301,13 @@
         <v>33</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>33</v>
@@ -6102,19 +6316,22 @@
         <v>33</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6133,16 +6350,16 @@
         <v>33</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6180,19 +6397,19 @@
         <v>33</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>34</v>
@@ -6204,22 +6421,25 @@
         <v>33</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6232,25 +6452,25 @@
         <v>33</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>33</v>
@@ -6299,7 +6519,7 @@
         <v>33</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>34</v>
@@ -6311,18 +6531,21 @@
         <v>33</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6333,7 +6556,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>33</v>
@@ -6345,13 +6568,13 @@
         <v>33</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6402,13 +6625,13 @@
         <v>33</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>33</v>
@@ -6418,14 +6641,17 @@
       </c>
       <c r="AK51" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>184</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6436,7 +6662,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>33</v>
@@ -6448,13 +6674,13 @@
         <v>33</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6505,13 +6731,13 @@
         <v>33</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>33</v>
@@ -6521,14 +6747,17 @@
       </c>
       <c r="AK52" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>187</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6539,7 +6768,7 @@
         <v>34</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>33</v>
@@ -6551,13 +6780,13 @@
         <v>33</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6608,13 +6837,13 @@
         <v>33</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>33</v>
@@ -6624,14 +6853,17 @@
       </c>
       <c r="AK53" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6642,7 +6874,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>33</v>
@@ -6654,13 +6886,13 @@
         <v>33</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6711,13 +6943,13 @@
         <v>33</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>33</v>
@@ -6727,14 +6959,17 @@
       </c>
       <c r="AK54" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6745,7 +6980,7 @@
         <v>34</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>33</v>
@@ -6757,13 +6992,13 @@
         <v>33</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6814,13 +7049,13 @@
         <v>33</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>33</v>
@@ -6830,14 +7065,17 @@
       </c>
       <c r="AK55" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6848,7 +7086,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>33</v>
@@ -6860,13 +7098,13 @@
         <v>33</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6917,13 +7155,13 @@
         <v>33</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>33</v>
@@ -6933,14 +7171,17 @@
       </c>
       <c r="AK56" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6951,7 +7192,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>33</v>
@@ -6963,13 +7204,13 @@
         <v>33</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7020,30 +7261,33 @@
         <v>33</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7054,7 +7298,7 @@
         <v>34</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>33</v>
@@ -7066,13 +7310,13 @@
         <v>33</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7123,13 +7367,13 @@
         <v>33</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>33</v>
@@ -7138,19 +7382,22 @@
         <v>33</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7169,16 +7416,16 @@
         <v>33</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7216,19 +7463,19 @@
         <v>33</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>34</v>
@@ -7240,22 +7487,25 @@
         <v>33</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -7268,25 +7518,25 @@
         <v>33</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>33</v>
@@ -7335,7 +7585,7 @@
         <v>33</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>34</v>
@@ -7347,18 +7597,21 @@
         <v>33</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7369,7 +7622,7 @@
         <v>34</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>33</v>
@@ -7381,13 +7634,13 @@
         <v>33</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7438,13 +7691,13 @@
         <v>33</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>33</v>
@@ -7454,14 +7707,17 @@
       </c>
       <c r="AK61" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7472,7 +7728,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>33</v>
@@ -7484,13 +7740,13 @@
         <v>33</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7541,13 +7797,13 @@
         <v>33</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>33</v>
@@ -7557,14 +7813,17 @@
       </c>
       <c r="AK62" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>211</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7575,7 +7834,7 @@
         <v>34</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>33</v>
@@ -7587,13 +7846,13 @@
         <v>33</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -7644,13 +7903,13 @@
         <v>33</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>33</v>
@@ -7660,14 +7919,17 @@
       </c>
       <c r="AK63" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7678,7 +7940,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>33</v>
@@ -7690,13 +7952,13 @@
         <v>33</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7747,13 +8009,13 @@
         <v>33</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>33</v>
@@ -7763,14 +8025,17 @@
       </c>
       <c r="AK64" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7781,7 +8046,7 @@
         <v>34</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>33</v>
@@ -7793,13 +8058,13 @@
         <v>33</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -7850,13 +8115,13 @@
         <v>33</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>33</v>
@@ -7866,14 +8131,17 @@
       </c>
       <c r="AK65" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7884,7 +8152,7 @@
         <v>34</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>33</v>
@@ -7896,13 +8164,13 @@
         <v>33</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -7953,13 +8221,13 @@
         <v>33</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>33</v>
@@ -7969,14 +8237,17 @@
       </c>
       <c r="AK66" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -7987,7 +8258,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>33</v>
@@ -7999,13 +8270,13 @@
         <v>33</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8056,13 +8327,13 @@
         <v>33</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>33</v>
@@ -8072,14 +8343,17 @@
       </c>
       <c r="AK67" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8090,7 +8364,7 @@
         <v>34</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>33</v>
@@ -8102,13 +8376,13 @@
         <v>33</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8159,13 +8433,13 @@
         <v>33</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>33</v>
@@ -8175,14 +8449,17 @@
       </c>
       <c r="AK68" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8193,7 +8470,7 @@
         <v>34</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>33</v>
@@ -8205,13 +8482,13 @@
         <v>33</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8262,13 +8539,13 @@
         <v>33</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>33</v>
@@ -8278,14 +8555,17 @@
       </c>
       <c r="AK69" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8296,7 +8576,7 @@
         <v>34</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>33</v>
@@ -8308,13 +8588,13 @@
         <v>33</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8365,13 +8645,13 @@
         <v>33</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>33</v>
@@ -8381,14 +8661,17 @@
       </c>
       <c r="AK70" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8399,7 +8682,7 @@
         <v>34</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>33</v>
@@ -8411,13 +8694,13 @@
         <v>33</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -8468,13 +8751,13 @@
         <v>33</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>33</v>
@@ -8484,14 +8767,17 @@
       </c>
       <c r="AK71" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8502,7 +8788,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>33</v>
@@ -8514,13 +8800,13 @@
         <v>33</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8571,13 +8857,13 @@
         <v>33</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>33</v>
@@ -8587,14 +8873,17 @@
       </c>
       <c r="AK72" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8605,7 +8894,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>33</v>
@@ -8617,13 +8906,13 @@
         <v>33</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -8674,30 +8963,33 @@
         <v>33</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -8708,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>33</v>
@@ -8720,13 +9012,13 @@
         <v>33</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8777,13 +9069,13 @@
         <v>33</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>33</v>
@@ -8792,19 +9084,22 @@
         <v>33</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -8823,16 +9118,16 @@
         <v>33</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -8870,19 +9165,19 @@
         <v>33</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>34</v>
@@ -8894,22 +9189,25 @@
         <v>33</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -8922,25 +9220,25 @@
         <v>33</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>33</v>
@@ -8989,7 +9287,7 @@
         <v>33</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>34</v>
@@ -9001,18 +9299,21 @@
         <v>33</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9023,7 +9324,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>33</v>
@@ -9035,13 +9336,13 @@
         <v>33</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9092,13 +9393,13 @@
         <v>33</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>33</v>
@@ -9108,14 +9409,17 @@
       </c>
       <c r="AK77" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9126,7 +9430,7 @@
         <v>34</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>33</v>
@@ -9138,13 +9442,13 @@
         <v>33</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9195,13 +9499,13 @@
         <v>33</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>33</v>
@@ -9211,14 +9515,17 @@
       </c>
       <c r="AK78" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9229,7 +9536,7 @@
         <v>34</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>33</v>
@@ -9241,13 +9548,13 @@
         <v>33</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9298,13 +9605,13 @@
         <v>33</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>33</v>
@@ -9314,14 +9621,17 @@
       </c>
       <c r="AK79" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9332,7 +9642,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>33</v>
@@ -9344,13 +9654,13 @@
         <v>33</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -9401,13 +9711,13 @@
         <v>33</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>33</v>
@@ -9417,14 +9727,17 @@
       </c>
       <c r="AK80" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9435,7 +9748,7 @@
         <v>34</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>33</v>
@@ -9447,13 +9760,13 @@
         <v>33</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -9504,13 +9817,13 @@
         <v>33</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>33</v>
@@ -9520,14 +9833,17 @@
       </c>
       <c r="AK81" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9538,7 +9854,7 @@
         <v>34</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>33</v>
@@ -9550,13 +9866,13 @@
         <v>33</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -9607,13 +9923,13 @@
         <v>33</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>33</v>
@@ -9623,14 +9939,17 @@
       </c>
       <c r="AK82" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -9641,7 +9960,7 @@
         <v>34</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>33</v>
@@ -9653,13 +9972,13 @@
         <v>33</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -9710,13 +10029,13 @@
         <v>33</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>33</v>
@@ -9726,14 +10045,17 @@
       </c>
       <c r="AK83" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -9744,7 +10066,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>33</v>
@@ -9756,13 +10078,13 @@
         <v>33</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -9813,13 +10135,13 @@
         <v>33</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>33</v>
@@ -9829,14 +10151,17 @@
       </c>
       <c r="AK84" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -9847,7 +10172,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>33</v>
@@ -9859,13 +10184,13 @@
         <v>33</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -9916,30 +10241,33 @@
         <v>33</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -9950,7 +10278,7 @@
         <v>34</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>33</v>
@@ -9962,13 +10290,13 @@
         <v>33</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -10019,13 +10347,13 @@
         <v>33</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>33</v>
@@ -10034,19 +10362,22 @@
         <v>33</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -10065,16 +10396,16 @@
         <v>33</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -10112,19 +10443,19 @@
         <v>33</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>34</v>
@@ -10136,22 +10467,25 @@
         <v>33</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -10164,25 +10498,25 @@
         <v>33</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>33</v>
@@ -10231,7 +10565,7 @@
         <v>33</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>34</v>
@@ -10243,18 +10577,21 @@
         <v>33</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10265,7 +10602,7 @@
         <v>34</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>33</v>
@@ -10277,13 +10614,13 @@
         <v>33</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10334,13 +10671,13 @@
         <v>33</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>33</v>
@@ -10350,14 +10687,17 @@
       </c>
       <c r="AK89" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10368,7 +10708,7 @@
         <v>34</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>33</v>
@@ -10380,13 +10720,13 @@
         <v>33</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -10437,13 +10777,13 @@
         <v>33</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>33</v>
@@ -10453,14 +10793,17 @@
       </c>
       <c r="AK90" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10471,7 +10814,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>33</v>
@@ -10483,13 +10826,13 @@
         <v>33</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -10540,13 +10883,13 @@
         <v>33</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>33</v>
@@ -10556,14 +10899,17 @@
       </c>
       <c r="AK91" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -10574,7 +10920,7 @@
         <v>34</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>33</v>
@@ -10586,13 +10932,13 @@
         <v>33</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -10643,13 +10989,13 @@
         <v>33</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>33</v>
@@ -10659,14 +11005,17 @@
       </c>
       <c r="AK92" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -10677,7 +11026,7 @@
         <v>34</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>33</v>
@@ -10689,13 +11038,13 @@
         <v>33</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -10746,13 +11095,13 @@
         <v>33</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>33</v>
@@ -10762,14 +11111,17 @@
       </c>
       <c r="AK93" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -10780,7 +11132,7 @@
         <v>34</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>33</v>
@@ -10792,13 +11144,13 @@
         <v>33</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -10849,13 +11201,13 @@
         <v>33</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>33</v>
@@ -10865,14 +11217,17 @@
       </c>
       <c r="AK94" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -10883,7 +11238,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>33</v>
@@ -10895,13 +11250,13 @@
         <v>33</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -10952,13 +11307,13 @@
         <v>33</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>33</v>
@@ -10968,14 +11323,17 @@
       </c>
       <c r="AK95" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -10986,7 +11344,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>33</v>
@@ -10998,13 +11356,13 @@
         <v>33</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -11055,13 +11413,13 @@
         <v>33</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>33</v>
@@ -11071,14 +11429,17 @@
       </c>
       <c r="AK96" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11089,7 +11450,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>33</v>
@@ -11101,13 +11462,13 @@
         <v>33</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11158,13 +11519,13 @@
         <v>33</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>33</v>
@@ -11174,6 +11535,9 @@
       </c>
       <c r="AK97" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-AdultCheckModel.xlsx
+++ b/StructureDefinition-AdultCheckModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T10:22:38+08:00</t>
+    <t>2023-11-08T11:45:10+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
